--- a/ZOI_assay_sample_log_092723_LEM.xlsx
+++ b/ZOI_assay_sample_log_092723_LEM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vanderbilt365-my.sharepoint.com/personal/lindsay_e_martin_vanderbilt_edu/Documents/Hillyer_Lab/Lytic_Immunity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="8_{6B0FAA58-9543-4DAF-8023-22838185A957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79627C0D-299A-4970-9208-9521555CD38F}"/>
+  <xr:revisionPtr revIDLastSave="90" documentId="8_{6B0FAA58-9543-4DAF-8023-22838185A957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A61FBD60-EAC0-475C-AE6F-83534696E8E6}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C76B092A-304A-4B8A-83AC-7B0685E64EF6}"/>
   </bookViews>
@@ -154,7 +154,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -298,7 +298,7 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -317,9 +317,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -357,7 +357,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -463,7 +463,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -605,7 +605,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -616,15 +616,19 @@
   <dimension ref="A1:AA477"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="44" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A462" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S484" sqref="S484"/>
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q1" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.26953125" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" customWidth="1"/>
+    <col min="3" max="3" width="14.36328125" customWidth="1"/>
+    <col min="4" max="4" width="20.36328125" customWidth="1"/>
+    <col min="5" max="5" width="14.1796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.26953125" customWidth="1"/>
+    <col min="7" max="7" width="8.81640625" customWidth="1"/>
     <col min="9" max="9" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.81640625" bestFit="1" customWidth="1"/>
